--- a/resource/params_values_shen.xlsx
+++ b/resource/params_values_shen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="changeable" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="314">
   <si>
     <t xml:space="preserve">Parameters</t>
   </si>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">mapreduce.map.java.opts</t>
   </si>
   <si>
-    <t xml:space="preserve">-Xmx1152m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Xmx922m, -Xmx1037m, -Xmx1267m, -Xmx1382m</t>
+    <t xml:space="preserve">-Xmx819m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Xmx655m, -Xmx737m, -Xmx901m, -Xmx983m</t>
   </si>
   <si>
     <t xml:space="preserve">mapreduce.map.maxattempts</t>
@@ -483,7 +483,7 @@
     <t xml:space="preserve">1024</t>
   </si>
   <si>
-    <t xml:space="preserve">780, 890, 1200, 1350 </t>
+    <t xml:space="preserve">819, 922, 1126, 1228</t>
   </si>
   <si>
     <t xml:space="preserve">mapreduce.map.output.compress</t>
@@ -550,10 +550,10 @@
     <t xml:space="preserve">mapreduce.reduce.java.opts</t>
   </si>
   <si>
-    <t xml:space="preserve">-Xmx2560m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Xmx2048m, -Xmx2304m, -Xmx2816m, -Xmx3072m</t>
+    <t xml:space="preserve">-Xmx1640m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Xmx1312m, -Xmx1478m, -Xmx1804m, -Xmx1968m</t>
   </si>
   <si>
     <t xml:space="preserve">mapreduce.reduce.markreset.buffer.percent</t>
@@ -578,6 +578,12 @@
     <t xml:space="preserve">mapreduce.reduce.memory.mb</t>
   </si>
   <si>
+    <t xml:space="preserve">2048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1638, 1843, 2253, 2458</t>
+  </si>
+  <si>
     <t xml:space="preserve">mapreduce.reduce.merge.inmem.threshold</t>
   </si>
   <si>
@@ -913,9 +919,6 @@
   </si>
   <si>
     <t xml:space="preserve">yarn.scheduler.minimum-allocation-mb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1638, 1843, 2253, 2458</t>
   </si>
   <si>
     <t xml:space="preserve">yarn.scheduler.minimum-allocation-vcores</t>
@@ -1143,19 +1146,19 @@
   <dimension ref="1:130"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.6632653061224"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="1023" min="7" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.0765306122449"/>
   </cols>
@@ -1941,19 +1944,16 @@
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -2194,10 +2194,10 @@
         <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
@@ -2219,13 +2219,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
@@ -2233,77 +2233,77 @@
     </row>
     <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>127</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>18</v>
@@ -2334,14 +2334,14 @@
         <v>92</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>18</v>
@@ -2355,29 +2355,29 @@
     </row>
     <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>85</v>
@@ -2394,36 +2394,36 @@
         <v>129</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
@@ -2431,29 +2431,29 @@
     </row>
     <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
@@ -2484,14 +2484,14 @@
         <v>129</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>135</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>135</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D90" s="0"/>
       <c r="E90" s="0"/>
@@ -2533,23 +2533,23 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>85</v>
@@ -2563,13 +2563,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="0"/>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="0"/>
@@ -2591,42 +2591,42 @@
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E95" s="0"/>
       <c r="F95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E96" s="0"/>
       <c r="F96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>76</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>144</v>
@@ -2651,16 +2651,16 @@
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E99" s="0"/>
       <c r="F99" s="0" t="s">
@@ -2669,13 +2669,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B100" s="9" t="n">
         <v>8192</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E100" s="0"/>
       <c r="F100" s="0" t="s">
@@ -2684,20 +2684,20 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E101" s="0"/>
       <c r="F101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>62</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>136</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>75</v>
@@ -2740,33 +2740,33 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E105" s="0"/>
       <c r="F105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E106" s="0"/>
       <c r="F106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>63</v>
@@ -2779,150 +2779,150 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E108" s="0"/>
       <c r="F108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E109" s="0"/>
       <c r="F109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E110" s="0"/>
       <c r="F110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E111" s="0"/>
       <c r="F111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E112" s="0"/>
       <c r="F112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E113" s="0"/>
       <c r="F113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E114" s="0"/>
       <c r="F114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>2048</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>289</v>
+        <v>181</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E116" s="0"/>
       <c r="F116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E117" s="0"/>
       <c r="F117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E118" s="0"/>
       <c r="F118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>63</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>-1</v>
@@ -2950,33 +2950,33 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>67108864</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E121" s="0"/>
       <c r="F121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>3600</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E122" s="0"/>
       <c r="F122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>63</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>62</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>63</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C126" s="0"/>
       <c r="E126" s="1" t="s">
@@ -3040,7 +3040,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>5000</v>
@@ -3055,35 +3055,35 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/resource/params_values_shen.xlsx
+++ b/resource/params_values_shen.xlsx
@@ -190,10 +190,10 @@
     <t xml:space="preserve">mapreduce.map.memory.mb</t>
   </si>
   <si>
-    <t xml:space="preserve">1024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">819, 922, 1126, 1228</t>
+    <t xml:space="preserve">4096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048, 3072, 5120, 6144</t>
   </si>
   <si>
     <t xml:space="preserve">mapreduce.map.output.compress</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">mapreduce.reduce.memory.mb</t>
   </si>
   <si>
-    <t xml:space="preserve">2048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1638, 1843, 2253, 2458</t>
+    <t xml:space="preserve">8192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4096, 6144, 10240, 12288</t>
   </si>
   <si>
     <t xml:space="preserve">mapreduce.reduce.merge.inmem.threshold</t>
@@ -954,9 +954,6 @@
     <t xml:space="preserve">yarn.scheduler.maximum-allocation-mb</t>
   </si>
   <si>
-    <t xml:space="preserve">8192</t>
-  </si>
-  <si>
     <t xml:space="preserve">yarn.scheduler.maximum-allocation-vcores</t>
   </si>
   <si>
@@ -967,6 +964,9 @@
   </si>
   <si>
     <t xml:space="preserve">yarn.scheduler.minimum-allocation-mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1638, 1843, 2253, 2458</t>
   </si>
   <si>
     <t xml:space="preserve">yarn.scheduler.minimum-allocation-vcores</t>
@@ -1140,9 +1140,9 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2961,7 +2961,7 @@
         <v>290</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>40</v>
@@ -3065,7 +3065,7 @@
         <v>301</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>169</v>
@@ -3075,26 +3075,26 @@
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="E124" s="0"/>
       <c r="F124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>2048</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="E125" s="0"/>
       <c r="F125" s="0"/>

--- a/resource/params_values_shen.xlsx
+++ b/resource/params_values_shen.xlsx
@@ -181,7 +181,7 @@
     <t xml:space="preserve">mapreduce.map.java.opts</t>
   </si>
   <si>
-    <t xml:space="preserve">-Xmx819m</t>
+    <t xml:space="preserve">-Xmx3072m</t>
   </si>
   <si>
     <t xml:space="preserve">-Xmx655m, -Xmx737m, -Xmx901m, -Xmx983m</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">mapreduce.reduce.java.opts</t>
   </si>
   <si>
-    <t xml:space="preserve">-Xmx1640m</t>
+    <t xml:space="preserve">-Xmx6144m</t>
   </si>
   <si>
     <t xml:space="preserve">-Xmx1312m, -Xmx1478m, -Xmx1804m, -Xmx1968m</t>
@@ -1139,10 +1139,10 @@
   </sheetPr>
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
